--- a/MicrosoftExcelFoundation/MicrosoftExcelLEarningpath/2_Searching_and_manupulating_data/4_sorting_and_filtering/2021_01_22T10_43_03_677Z .xlsx
+++ b/MicrosoftExcelFoundation/MicrosoftExcelLEarningpath/2_Searching_and_manupulating_data/4_sorting_and_filtering/2021_01_22T10_43_03_677Z .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\10 Minute School\50 Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1FD3885-AABB-4B62-A8A0-CA190706F512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDA2017-E00F-4184-B731-6A1C5610D16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="4" xr2:uid="{858A62D9-1599-4210-9775-AAAC6E0CE55F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="4" xr2:uid="{858A62D9-1599-4210-9775-AAAC6E0CE55F}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="CASE_FILTERING_SORTING_COMBINE" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CASE_FILTERING_SORTING_COMBINE!$B$15:$F$24</definedName>
     <definedName name="fruits">SUMIF!$B$4:$B$13</definedName>
     <definedName name="prices">SUMIF!$C$4:$C$13</definedName>
     <definedName name="target">SUMIF!$K$2:$K$2</definedName>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="165">
   <si>
     <t xml:space="preserve">Company XYZ </t>
   </si>
@@ -507,13 +508,43 @@
     <t>POINTS</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Modified Name</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>JeNNY</t>
+  </si>
+  <si>
+    <t>ROBERT</t>
+  </si>
+  <si>
+    <t>Ramos</t>
+  </si>
+  <si>
+    <t>KORIA</t>
+  </si>
+  <si>
+    <t>roger</t>
+  </si>
+  <si>
     <t>IND</t>
   </si>
   <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>USA</t>
+    <t>tanvir rahman</t>
+  </si>
+  <si>
+    <t>Rahim</t>
+  </si>
+  <si>
+    <t>Will</t>
   </si>
   <si>
     <t>Sudipto</t>
@@ -528,16 +559,10 @@
     <t>SPAIN</t>
   </si>
   <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>KORIA</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Rahim</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>LOWER EVERYTHING</t>
   </si>
 </sst>
 </file>
@@ -2147,16 +2172,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2171,8 +2196,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696075" y="295275"/>
-          <a:ext cx="2505075" cy="2085975"/>
+          <a:off x="6877050" y="180975"/>
+          <a:ext cx="2505075" cy="2790825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2195,11 +2220,352 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-lt"/>
-            <a:cs typeface="+mn-lt"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>UPPER(),LOWER(),PROPER()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SUPPOSE YOU WNT TO SORT THE LAST NAME ALPHABETICALLY.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>JUST CLICK ANY VALUE IN THE REQUIRED COLUMN AND THEN GO TO THE SORT AND FILTER THEN CHOOSE SORT A-Z THE COLUMN WITH ALL ITS VALUE WILL BE SORTED. IF YOU WANT CUSTOM SORT THEN GO TO CUSTOM SORT AND THEN CHOOSE YOUR COLUMN AND HOW YOU SORT IT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983E5387-4475-5FF8-0A33-770BC443D580}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E66AA107-BF40-3AAC-062E-441BEDB9E36E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="3162300"/>
+          <a:ext cx="4171950" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>IF YOU WANT TO FILTER ANY DATA JUST SELECT ANY CELL IN THE TABLE AND GO AND CLICK FILTER IN THE SORT&amp;FILTER OPTIONS THEN YOU WILL FIND THERE IS A ARRROW BUTTOM BESIDE EACH LABEL OF THE TABLE. CLICK YOUR TARGET COLUMNS ARROW AND THEN GO TO THE NUMBER FILTER. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SUPPOSE YOU WANT THE VALUE BETWEEN 900 AND 1000. SO CHOOSE THE "BETWEEN" AND THEN PUT THE NUMBER THEN ENTER AND THE FILTERED VALUE WILL BE SHOWED. AND THE ARROW BESIDE THE LABEL WILL BE CHANGED. IF YOU WANT TO RESET THE FILTER THEN CLICK ON THE ICON AND SELECT RESET FILTER. YOU CAN USE CUSTOM FILTER IF YOU WANT CUSTOM FILTERING</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A721F1C6-E168-D027-82B4-56ACB3246731}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{983E5387-4475-5FF8-0A33-770BC443D580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="6134100"/>
+          <a:ext cx="3905250" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>CONCAT() FUNCTION</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SUPPOSE WE WANT TO MAKE AN EMAIL FROM THE LASTNAME AND CONTRY AND THE FORMAT IS LIKE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>LASTNAME_COUNTRY@GMAIL.COM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>EXAMPLE:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Tanvir_BD@gmail.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>THE FUNCTION IS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>=CONCAT(C38,"_",E38,"@gmail.com")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>THEN CLICK FILL HANDLE (AUTO FILL)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6307,218 +6673,467 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E7E121-D72B-4431-8F00-7B9F27A98B33}">
-  <dimension ref="B2:D23"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="3" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:11">
       <c r="B2" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3">
+        <v>1005</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" t="str">
+        <f>UPPER(J3)</f>
+        <v>JENNY</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
         <v>121</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1000</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+      <c r="J4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" t="str">
+        <f>LOWER(J4)</f>
+        <v>robert</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>990</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" t="str">
+        <f>UPPER(J5)</f>
+        <v>ROGER</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
         <v>127</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>980</v>
       </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5">
-        <v>1005</v>
-      </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" t="str">
+        <f>PROPER(J6)</f>
+        <v>Tanvir Rahman</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7">
+        <v>967</v>
+      </c>
+      <c r="F7" t="s">
         <v>149</v>
       </c>
-      <c r="C6">
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8">
+        <v>960</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9">
         <v>890</v>
       </c>
-      <c r="D6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7">
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10">
         <v>765</v>
       </c>
-      <c r="D7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8">
-        <v>990</v>
-      </c>
-      <c r="D8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9">
-        <v>960</v>
-      </c>
-      <c r="D9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10">
-        <v>967</v>
-      </c>
-      <c r="D10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="F10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="G15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" t="s">
         <v>121</v>
       </c>
       <c r="C16">
         <v>1000</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
+      <c r="G16" t="str">
+        <f>LOWER(_xlfn.CONCAT(C39,"_",G39,"@gmail.com"))</f>
+        <v>tanvir_bd@gmail.com</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
         <v>127</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>980</v>
       </c>
-      <c r="D17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18">
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" ref="G18:G19" si="0">LOWER(_xlfn.CONCAT(C40,"_",G40,"@gmail.com"))</f>
+        <v>hasnat_ind@gmail.com</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19">
         <v>1005</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>sam_usa@gmail.com</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" hidden="1">
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20">
+        <v>890</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" hidden="1">
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21">
+        <v>765</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22">
+        <v>990</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ref="G22:G24" si="1">LOWER(_xlfn.CONCAT(C44,"_",G44,"@gmail.com"))</f>
+        <v>ramos_koria@gmail.com</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23">
+        <v>960</v>
+      </c>
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>will_usa@gmail.com</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24">
+        <v>967</v>
+      </c>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>rahim_usa@gmail.com</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39">
+        <v>1000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" t="str">
+        <f>_xlfn.CONCAT(C39,"_",G39,"@gmail.com")</f>
+        <v>Tanvir_BD@gmail.com</v>
+      </c>
+      <c r="I39" t="str">
+        <f>LOWER(H39)</f>
+        <v>tanvir_bd@gmail.com</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40">
+        <v>980</v>
+      </c>
+      <c r="G40" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" ref="H40:H46" si="2">_xlfn.CONCAT(C40,"_",G40,"@gmail.com")</f>
+        <v>Hasnat_IND@gmail.com</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" ref="I40:I46" si="3">LOWER(H40)</f>
+        <v>hasnat_ind@gmail.com</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
+      <c r="F41">
+        <v>1005</v>
+      </c>
+      <c r="G41" t="s">
         <v>149</v>
       </c>
-      <c r="C19">
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>Sam_USA@gmail.com</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v>sam_usa@gmail.com</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42">
         <v>890</v>
       </c>
-      <c r="D19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20">
+      <c r="G42" t="s">
+        <v>160</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>Sudipto_ITALY@gmail.com</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="3"/>
+        <v>sudipto_italy@gmail.com</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43">
         <v>765</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G43" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>Zamil_SPAIN@gmail.com</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v>zamil_spain@gmail.com</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
+      <c r="F44">
+        <v>990</v>
+      </c>
+      <c r="G44" t="s">
         <v>153</v>
       </c>
-      <c r="C21">
-        <v>990</v>
-      </c>
-      <c r="D21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22">
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>Ramos_KORIA@gmail.com</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>ramos_koria@gmail.com</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45">
         <v>960</v>
       </c>
-      <c r="D22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23">
+      <c r="G45" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>Will_USA@gmail.com</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>will_usa@gmail.com</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46">
         <v>967</v>
       </c>
-      <c r="D23" t="s">
-        <v>148</v>
+      <c r="G46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>Rahim_USA@gmail.com</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>rahim_usa@gmail.com</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B15:F24" xr:uid="{15E7E121-D72B-4431-8F00-7B9F27A98B33}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="greaterThan" val="900"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F10">
+    <sortCondition descending="1" ref="C3:C10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
